--- a/Test_Data/LoginTestData.xlsx
+++ b/Test_Data/LoginTestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anshul\PycharmProjects\Automation Scripts\Test_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{801C102F-6DB8-49FA-A16E-CDE3E834E679}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDBD558-3B79-4A2F-A74D-9F7F828BFB63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,12 +36,6 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>anshulgupta1791@gmail.com</t>
-  </si>
-  <si>
-    <t>Anshul</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -52,6 +46,12 @@
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>anshultest@test.com</t>
+  </si>
+  <si>
+    <t>AnshulTest</t>
   </si>
 </sst>
 </file>
@@ -383,7 +383,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,52 +406,52 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{7F6A0378-C713-430A-BA65-55666A2EA5DF}"/>
-    <hyperlink ref="A4" r:id="rId2" xr:uid="{22A7112E-FE2D-42D9-B85B-18DA5CA66094}"/>
+    <hyperlink ref="A4" r:id="rId2" xr:uid="{5888A213-7A5B-4B64-8AE9-5093586DFC69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
